--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,12 +467,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>сделать задачу</t>
+          <t>сделать задачу 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>захаров егор</t>
+          <t xml:space="preserve"> Захаров Егор А</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,34 +481,234 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45850</v>
+        <v>45849.12553240741</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Не выполнено</t>
+          <t>Выполнено</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>сделать задачу</t>
+          <t>сделать задачу 2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ксения пихотина</t>
+          <t>Захаров Егор Б</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kseniapihotina10@gmail.com</t>
+          <t>zaharov.egor.2003@mail.ru</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45847</v>
+        <v>45850.12553240741</v>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Не указан</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>сделать задачу 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Захаров Егор В</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>work28518@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45851</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Не указан</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>сделать задачу 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Захаров Егор А</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>regisration.email@mail.ru</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Выполнено</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>сделать задачу 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Захаров Егор Б</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>zaharov.egor.2003@mail.ru</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Не указан</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>сделать задачу 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Захаров Егор В</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>work28518@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Не указан</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>сделать задачу 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Захаров Егор А</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>regisration.email@mail.ru</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Выполнено</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>сделать задачу 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Захаров Егор Б</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>zaharov.egor.2003@mail.ru</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Не указан</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>сделать задачу 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Захаров Егор В</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>work28518@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Не указан</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>сделать задачу 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Захаров Егор А</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>regisration.email@mail.ru</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Выполнено</t>
         </is>
